--- a/05_テスト/テスト結果_07.xlsx
+++ b/05_テスト/テスト結果_07.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_27e2\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_5f2\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="509" documentId="13_ncr:1_{F20C7738-E311-4B1A-A8C2-EBD9A687A34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9156EEF5-77B0-403E-9CD6-D207CAC193F3}"/>
+  <xr:revisionPtr revIDLastSave="579" documentId="13_ncr:1_{F20C7738-E311-4B1A-A8C2-EBD9A687A34D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F7AFB2F-D139-4C3C-AC00-3AA9AC27667C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述例" sheetId="3" r:id="rId1"/>
@@ -18,11 +18,10 @@
     <sheet name="Game" sheetId="4" r:id="rId3"/>
     <sheet name="CardStack" sheetId="10" r:id="rId4"/>
     <sheet name="Card" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
-    <sheet name="Player" sheetId="5" r:id="rId7"/>
-    <sheet name="Turn" sheetId="9" r:id="rId8"/>
-    <sheet name="gentleReferee " sheetId="12" r:id="rId9"/>
-    <sheet name="StrictReferee" sheetId="11" r:id="rId10"/>
+    <sheet name="Player" sheetId="5" r:id="rId6"/>
+    <sheet name="Turn" sheetId="9" r:id="rId7"/>
+    <sheet name="gentleReferee " sheetId="12" r:id="rId8"/>
+    <sheet name="StrictReferee" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="141">
   <si>
     <t>タイトル：ＸＸＸシステム テスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -187,6 +186,9 @@
 と表示されて終了</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>２</t>
   </si>
   <si>
@@ -218,7 +220,13 @@
 2．drawを実行する。</t>
   </si>
   <si>
-    <t>5回テストしてランダムで範囲内のカードが提示される</t>
+    <t>5回テストしてランダムで提示される</t>
+  </si>
+  <si>
+    <t>6回テストしてランダムで提示される</t>
+  </si>
+  <si>
+    <t>吉富</t>
   </si>
   <si>
     <t>３</t>
@@ -241,6 +249,9 @@
     <t>以下の手順で実行
 １．setNumber(1)を実行する
 ２．cardNumberに１が入っていることを確認。</t>
+  </si>
+  <si>
+    <t>山浦</t>
   </si>
   <si>
     <t>引数で受け取ったSuit型のcardSuit
@@ -277,6 +288,9 @@
     <t>1が返される。</t>
   </si>
   <si>
+    <t>石川</t>
+  </si>
+  <si>
     <t>1-２</t>
   </si>
   <si>
@@ -312,6 +326,9 @@
     <t>[1 1]が返される</t>
   </si>
   <si>
+    <t>[-1 -1]が返される</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
@@ -325,9 +342,6 @@
 </t>
   </si>
   <si>
-    <t>[-1 -1]が返される</t>
-  </si>
-  <si>
     <t>コンストラクタ</t>
   </si>
   <si>
@@ -366,9 +380,6 @@
     <t>falseが返される</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>１-2</t>
   </si>
   <si>
@@ -453,23 +464,10 @@
 ２．changeSuit(3)を実行する</t>
   </si>
   <si>
+    <t>requestCard()</t>
+  </si>
+  <si>
     <t>3-1</t>
-  </si>
-  <si>
-    <t>ターンにプレイヤーを設定する。</t>
-  </si>
-  <si>
-    <t>以下の手順で実行
-１．Player型のplayerを引数に入れてTurnインスタンスを生成</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>requestCard()</t>
-  </si>
-  <si>
-    <t>4-1</t>
   </si>
   <si>
     <t>カードの数とスートを指定する。
@@ -481,7 +479,7 @@
 ２．requestCard()を実行し、（14　-1）を入力</t>
   </si>
   <si>
-    <t>4-2</t>
+    <t>3-2</t>
   </si>
   <si>
     <t>カードの数とスートを指定する。
@@ -493,7 +491,7 @@
 ２．requestCard()を実行し、（14　0）を入力</t>
   </si>
   <si>
-    <t>4-3</t>
+    <t>3-3</t>
   </si>
   <si>
     <t>カードの数とスートを指定する。
@@ -503,11 +501,6 @@
     <t>以下の手順で実行
 １．Player型のplayerを引数に入れてTurnインスタンスを生成
 ２．requestCard()を実行し、（13　0）を入力</t>
-  </si>
-  <si>
-    <t>以下の手順で実行
-１．
-２．</t>
   </si>
   <si>
     <t>タイトル：GentleReferee</t>
@@ -535,6 +528,9 @@
   <si>
     <t>true
 を返す</t>
+  </si>
+  <si>
+    <t>太田</t>
   </si>
   <si>
     <t>1-2</t>
@@ -1028,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,6 +1124,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1145,6 +1144,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2379,931 +2384,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7A23EC-4022-4551-88E1-3565C5A0362E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AS17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="18" width="3.5703125" style="1"/>
-    <col min="19" max="19" width="5.140625" style="1" customWidth="1"/>
-    <col min="20" max="44" width="3.5703125" style="1"/>
-    <col min="45" max="45" width="19.42578125" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="3.5703125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:45" ht="9" customHeight="1"/>
-    <row r="2" spans="2:45" ht="15" customHeight="1">
-      <c r="B2" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-    </row>
-    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-    </row>
-    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-    </row>
-    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-    </row>
-    <row r="6" spans="2:45">
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="10"/>
-    </row>
-    <row r="7" spans="2:45" ht="99.75" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="14"/>
-    </row>
-    <row r="8" spans="2:45" ht="99.75" customHeight="1">
-      <c r="B8" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="14"/>
-    </row>
-    <row r="9" spans="2:45" ht="99.75" customHeight="1">
-      <c r="B9" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="32"/>
-    </row>
-    <row r="10" spans="2:45" ht="99.75" customHeight="1">
-      <c r="B10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="14"/>
-    </row>
-    <row r="11" spans="2:45" ht="72" customHeight="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="14"/>
-    </row>
-    <row r="12" spans="2:45" ht="72" customHeight="1">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="14"/>
-    </row>
-    <row r="13" spans="2:45" ht="72" customHeight="1">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="14"/>
-    </row>
-    <row r="14" spans="2:45" ht="72" customHeight="1">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="14"/>
-    </row>
-    <row r="15" spans="2:45" ht="72" customHeight="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="14"/>
-    </row>
-    <row r="16" spans="2:45" ht="72" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="14"/>
-    </row>
-    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP6:AS6"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -4200,8 +3280,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9:AS9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9:AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4502,12 +3582,16 @@
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="Y7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
@@ -4526,14 +3610,14 @@
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1">
       <c r="B8" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -4556,12 +3640,16 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="Y8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -5107,8 +4195,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:S10"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -5125,7 +4213,7 @@
     <row r="1" spans="2:45" ht="9" customHeight="1"/>
     <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -5223,7 +4311,7 @@
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -5383,10 +4471,10 @@
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -5403,26 +4491,34 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="Y7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
+      <c r="AH7" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
+      <c r="AL7" s="33">
+        <v>43991</v>
+      </c>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
@@ -5433,7 +4529,7 @@
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1">
       <c r="B8" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="5"/>
@@ -5481,7 +4577,7 @@
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="3"/>
@@ -5529,7 +4625,7 @@
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1">
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
@@ -6012,7 +5108,7 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y8" sqref="Y8:AC8"/>
     </sheetView>
   </sheetViews>
@@ -6030,7 +5126,7 @@
     <row r="1" spans="2:45" ht="9" customHeight="1"/>
     <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -6128,7 +5224,7 @@
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6288,10 +5384,10 @@
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -6307,13 +5403,13 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="33">
+      <c r="T7" s="34">
         <v>1</v>
       </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
       <c r="Y7" s="13">
         <v>1</v>
       </c>
@@ -6321,15 +5417,21 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="AD7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
+      <c r="AH7" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
+      <c r="AL7" s="33">
+        <v>43991</v>
+      </c>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
@@ -6340,14 +5442,14 @@
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1">
       <c r="B8" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -6363,29 +5465,35 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="13"/>
+      <c r="T8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
+      <c r="AH8" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
+      <c r="AL8" s="33">
+        <v>43991</v>
+      </c>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
@@ -6917,18 +6025,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD06EEC4-501B-4507-B596-9F71524EB3E6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A46751-8181-4030-AC05-DD8FA652B03A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6954,7 +6050,7 @@
     <row r="1" spans="2:46" ht="9" customHeight="1"/>
     <row r="2" spans="2:46" ht="15" customHeight="1">
       <c r="C2" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -7052,7 +6148,7 @@
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -7207,18 +6303,18 @@
       <c r="AT6" s="10"/>
     </row>
     <row r="7" spans="2:46" ht="72" customHeight="1">
-      <c r="B7" s="35" t="s">
-        <v>41</v>
+      <c r="B7" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -7235,26 +6331,34 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
+      <c r="Z7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
       <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
+      <c r="AI7" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
       <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
+      <c r="AM7" s="33">
+        <v>43991</v>
+      </c>
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
       <c r="AP7" s="13"/>
@@ -7264,16 +6368,16 @@
       <c r="AT7" s="14"/>
     </row>
     <row r="8" spans="2:46" ht="72" customHeight="1">
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -7290,26 +6394,34 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
+      <c r="Z8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
       <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
+      <c r="AI8" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
       <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
+      <c r="AM8" s="33">
+        <v>43991</v>
+      </c>
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
       <c r="AP8" s="13"/>
@@ -7319,18 +6431,18 @@
       <c r="AT8" s="14"/>
     </row>
     <row r="9" spans="2:46" ht="72" customHeight="1">
-      <c r="B9" s="35" t="s">
-        <v>50</v>
+      <c r="B9" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -7347,26 +6459,34 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
+      <c r="Z9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
       <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
+      <c r="AI9" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
       <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
+      <c r="AM9" s="33">
+        <v>43991</v>
+      </c>
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
       <c r="AP9" s="13"/>
@@ -7376,16 +6496,16 @@
       <c r="AT9" s="32"/>
     </row>
     <row r="10" spans="2:46" ht="72" customHeight="1">
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -7402,26 +6522,34 @@
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
+      <c r="Z10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
+      <c r="AI10" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
       <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
+      <c r="AM10" s="33">
+        <v>43991</v>
+      </c>
       <c r="AN10" s="13"/>
       <c r="AO10" s="13"/>
       <c r="AP10" s="13"/>
@@ -7432,17 +6560,17 @@
     </row>
     <row r="11" spans="2:46" ht="72" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -7459,26 +6587,34 @@
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
+      <c r="Z11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
+      <c r="AI11" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
       <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
+      <c r="AM11" s="33">
+        <v>43991</v>
+      </c>
       <c r="AN11" s="13"/>
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
@@ -7873,15 +7009,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC9C34-D901-4FDF-8A1A-D63FD67EDE18}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AT21"/>
+  <dimension ref="B1:AT20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19:Y19"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -7899,7 +7035,7 @@
     <row r="1" spans="2:46" ht="9" customHeight="1"/>
     <row r="2" spans="2:46" ht="15" customHeight="1">
       <c r="C2" s="19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -7997,7 +7133,7 @@
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -8152,18 +7288,18 @@
       <c r="AT6" s="10"/>
     </row>
     <row r="7" spans="2:46" ht="72" customHeight="1">
-      <c r="B7" s="35" t="s">
-        <v>65</v>
+      <c r="B7" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -8180,21 +7316,21 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
@@ -8213,16 +7349,16 @@
       <c r="AT7" s="14"/>
     </row>
     <row r="8" spans="2:46" ht="72" customHeight="1">
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -8239,21 +7375,21 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -8272,16 +7408,16 @@
       <c r="AT8" s="14"/>
     </row>
     <row r="9" spans="2:46" ht="72" customHeight="1">
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -8298,21 +7434,21 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
@@ -8331,16 +7467,16 @@
       <c r="AT9" s="32"/>
     </row>
     <row r="10" spans="2:46" ht="72" customHeight="1">
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -8357,21 +7493,21 @@
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
@@ -8390,18 +7526,18 @@
       <c r="AT10" s="14"/>
     </row>
     <row r="11" spans="2:46" ht="72" customHeight="1">
-      <c r="B11" s="35" t="s">
-        <v>81</v>
+      <c r="B11" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -8418,21 +7554,21 @@
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
@@ -8451,16 +7587,16 @@
       <c r="AT11" s="14"/>
     </row>
     <row r="12" spans="2:46" ht="72" customHeight="1">
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -8477,21 +7613,21 @@
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF12" s="13"/>
       <c r="AG12" s="13"/>
@@ -8510,16 +7646,16 @@
       <c r="AT12" s="14"/>
     </row>
     <row r="13" spans="2:46" ht="72" customHeight="1">
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -8536,21 +7672,21 @@
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
@@ -8569,16 +7705,16 @@
       <c r="AT13" s="14"/>
     </row>
     <row r="14" spans="2:46" ht="72" customHeight="1">
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -8595,21 +7731,21 @@
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
@@ -8628,46 +7764,50 @@
       <c r="AT14" s="14"/>
     </row>
     <row r="15" spans="2:46" ht="72" customHeight="1">
-      <c r="B15" s="1" t="s">
-        <v>59</v>
+      <c r="B15" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="E15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="39"/>
       <c r="U15" s="15" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
+      <c r="Z15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
       <c r="AH15" s="13"/>
@@ -8685,49 +7825,47 @@
       <c r="AT15" s="14"/>
     </row>
     <row r="16" spans="2:46" ht="72" customHeight="1">
-      <c r="B16" s="35" t="s">
-        <v>96</v>
-      </c>
+      <c r="B16" s="36"/>
       <c r="C16" s="17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
+        <v>101</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="39"/>
       <c r="U16" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF16" s="13"/>
       <c r="AG16" s="13"/>
@@ -8746,47 +7884,47 @@
       <c r="AT16" s="14"/>
     </row>
     <row r="17" spans="2:46" ht="72" customHeight="1">
-      <c r="B17" s="35"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="38"/>
+        <v>104</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="39"/>
       <c r="U17" s="15" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="15" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="13" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
@@ -8805,48 +7943,35 @@
       <c r="AT17" s="14"/>
     </row>
     <row r="18" spans="2:46" ht="72" customHeight="1">
-      <c r="B18" s="35"/>
-      <c r="C18" s="17" t="s">
-        <v>103</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="15"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
-      <c r="Z18" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
       <c r="AF18" s="13"/>
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
@@ -8867,9 +7992,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="15" t="s">
-        <v>106</v>
-      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -8911,102 +8034,54 @@
       <c r="AS19" s="13"/>
       <c r="AT19" s="14"/>
     </row>
-    <row r="20" spans="2:46" ht="72" customHeight="1">
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="14"/>
-    </row>
-    <row r="21" spans="2:46" ht="72" customHeight="1" thickBot="1">
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="21"/>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="21"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="21"/>
-      <c r="AT21" s="22"/>
+    <row r="20" spans="2:46" ht="72" customHeight="1" thickBot="1">
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="21"/>
+      <c r="AT20" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="125">
     <mergeCell ref="C2:AT3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
@@ -9065,6 +8140,9 @@
     <mergeCell ref="Z11:AD11"/>
     <mergeCell ref="AE11:AH11"/>
     <mergeCell ref="AI11:AL11"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AI18:AL18"/>
     <mergeCell ref="AM13:AP13"/>
     <mergeCell ref="AQ13:AT13"/>
     <mergeCell ref="C14:D14"/>
@@ -9081,63 +8159,52 @@
     <mergeCell ref="Z13:AD13"/>
     <mergeCell ref="AE13:AH13"/>
     <mergeCell ref="AI13:AL13"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="AQ21:AT21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AI21:AL21"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="AQ19:AT19"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="AQ20:AT20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F20:T20"/>
     <mergeCell ref="U20:Y20"/>
     <mergeCell ref="Z20:AD20"/>
     <mergeCell ref="AE20:AH20"/>
     <mergeCell ref="AI20:AL20"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="AQ20:AT20"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="AQ18:AT18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F19:T19"/>
     <mergeCell ref="U19:Y19"/>
     <mergeCell ref="Z19:AD19"/>
     <mergeCell ref="AE19:AH19"/>
     <mergeCell ref="AI19:AL19"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AH17"/>
-    <mergeCell ref="AI17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AQ17:AT17"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="AQ19:AT19"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:T18"/>
     <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AH18"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="AI16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AQ16:AT16"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="AI15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="AQ15:AT15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:T15"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="Z15:AD15"/>
     <mergeCell ref="AE15:AH15"/>
-    <mergeCell ref="AI15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="AQ15:AT15"/>
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AQ17:AT17"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="F16:T16"/>
     <mergeCell ref="U16:Y16"/>
     <mergeCell ref="Z16:AD16"/>
     <mergeCell ref="AE16:AH16"/>
-    <mergeCell ref="AI18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="AQ18:AT18"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AQ16:AT16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:T17"/>
   </mergeCells>
@@ -9148,7 +8215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1023B1B7-67B0-434D-B541-45F3481F5BB4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9165,7 +8232,9 @@
     <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="44" width="3.5703125" style="1"/>
+    <col min="5" max="37" width="3.5703125" style="1"/>
+    <col min="38" max="38" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="44" width="3.5703125" style="1"/>
     <col min="45" max="45" width="19.42578125" style="1" customWidth="1"/>
     <col min="46" max="16384" width="3.5703125" style="1"/>
   </cols>
@@ -9173,7 +8242,7 @@
     <row r="1" spans="2:45" ht="9" customHeight="1"/>
     <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -9271,7 +8340,7 @@
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -9427,14 +8496,14 @@
     </row>
     <row r="7" spans="2:45" ht="105" customHeight="1">
       <c r="B7" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -9451,26 +8520,34 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="Y7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
+      <c r="AH7" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
+      <c r="AL7" s="33">
+        <v>43991</v>
+      </c>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
@@ -9511,20 +8588,28 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="Y8" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
+      <c r="AH8" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
+      <c r="AL8" s="33">
+        <v>43991</v>
+      </c>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
@@ -9535,7 +8620,7 @@
     </row>
     <row r="9" spans="2:45" ht="103.5" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="5" t="s">
@@ -9565,23 +8650,31 @@
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="Y9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
+      <c r="AH9" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
+      <c r="AL9" s="40">
+        <v>43991</v>
+      </c>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="41"/>
       <c r="AP9" s="30"/>
       <c r="AQ9" s="31"/>
       <c r="AR9" s="31"/>
@@ -9589,7 +8682,7 @@
     </row>
     <row r="10" spans="2:45" ht="99" customHeight="1">
       <c r="B10" s="17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="5" t="s">
@@ -9619,23 +8712,31 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
+      <c r="Y10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
+      <c r="AH10" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
+      <c r="AL10" s="40">
+        <v>43991</v>
+      </c>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="41"/>
       <c r="AP10" s="13"/>
       <c r="AQ10" s="13"/>
       <c r="AR10" s="13"/>
@@ -9643,7 +8744,7 @@
     </row>
     <row r="11" spans="2:45" ht="99.75" customHeight="1">
       <c r="B11" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="5" t="s">
@@ -9669,6 +8770,971 @@
       <c r="T11" s="15" t="s">
         <v>125</v>
       </c>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="40">
+        <v>43991</v>
+      </c>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="14"/>
+    </row>
+    <row r="12" spans="2:45" ht="72" customHeight="1">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="14"/>
+    </row>
+    <row r="13" spans="2:45" ht="72" customHeight="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="14"/>
+    </row>
+    <row r="14" spans="2:45" ht="72" customHeight="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="14"/>
+    </row>
+    <row r="15" spans="2:45" ht="72" customHeight="1">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="14"/>
+    </row>
+    <row r="16" spans="2:45" ht="72" customHeight="1">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="14"/>
+    </row>
+    <row r="17" spans="2:45" ht="72" customHeight="1" thickBot="1">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AK17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7A23EC-4022-4551-88E1-3565C5A0362E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AS17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="3.5703125" style="1"/>
+    <col min="19" max="19" width="5.140625" style="1" customWidth="1"/>
+    <col min="20" max="44" width="3.5703125" style="1"/>
+    <col min="45" max="45" width="19.42578125" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="3.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" ht="9" customHeight="1"/>
+    <row r="2" spans="2:45" ht="15" customHeight="1">
+      <c r="B2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+    </row>
+    <row r="3" spans="2:45" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+    </row>
+    <row r="4" spans="2:45" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+    </row>
+    <row r="5" spans="2:45" ht="15" customHeight="1" thickBot="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+    </row>
+    <row r="6" spans="2:45">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="10"/>
+    </row>
+    <row r="7" spans="2:45" ht="99.75" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="40">
+        <v>43991</v>
+      </c>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="14"/>
+    </row>
+    <row r="8" spans="2:45" ht="99.75" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="40">
+        <v>43991</v>
+      </c>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="14"/>
+    </row>
+    <row r="9" spans="2:45" ht="99.75" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="40">
+        <v>43991</v>
+      </c>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="32"/>
+    </row>
+    <row r="10" spans="2:45" ht="99.75" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="40">
+        <v>43991</v>
+      </c>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="14"/>
+    </row>
+    <row r="11" spans="2:45" ht="72" customHeight="1">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="15"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
@@ -9686,10 +9752,10 @@
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="41"/>
       <c r="AP11" s="13"/>
       <c r="AQ11" s="13"/>
       <c r="AR11" s="13"/>
@@ -10080,12 +10146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10094,7 +10154,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -10278,14 +10338,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC103151-D75B-4D1C-971B-4F7A83C8DA00}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC103151-D75B-4D1C-971B-4F7A83C8DA00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}"/>
 </file>